--- a/main_script/output/table_4.xlsx
+++ b/main_script/output/table_4.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>1,000 GHz</t>
+    <t>1.000 GHz</t>
   </si>
   <si>
     <t>6.729 dB</t>
   </si>
   <si>
-    <t>1075.615 kK]</t>
+    <t>1075.615 K</t>
   </si>
   <si>
     <t>1.500 GHz</t>
   </si>
   <si>
-    <t>6.23</t>
+    <t>6.291 dB</t>
   </si>
   <si>
     <t>944.474 K</t>
@@ -37,7 +37,7 @@
     <t>2.000 GHz</t>
   </si>
   <si>
-    <t>6.787</t>
+    <t>6.787 dB</t>
   </si>
   <si>
     <t>1093.831 K</t>
@@ -46,10 +46,10 @@
     <t>2.500 GHz</t>
   </si>
   <si>
-    <t>6.737 dB</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>6.737 d8</t>
+  </si>
+  <si>
+    <t>1077.982 K</t>
   </si>
   <si>
     <t>3.000 GHz</t>
@@ -58,7 +58,7 @@
     <t>7.063 dB</t>
   </si>
   <si>
-    <t>1184.726 kK</t>
+    <t>1184.725 K</t>
   </si>
   <si>
     <t>3.500 GHz</t>
@@ -434,7 +434,7 @@
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
